--- a/State of the art/Dataset comparison.xlsx
+++ b/State of the art/Dataset comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA583BE-B6A1-4802-87E0-36C71B70F851}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E3ABB-2532-4B20-9F26-207C0A5BA2A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -137,6 +137,53 @@
   </si>
   <si>
     <t>https://www.kaggle.com/vbookshelf/v2-plant-seedlings-dataset</t>
+  </si>
+  <si>
+    <t>Weed Detection Dataset with RGB Images Taken Under Variable Light Conditions</t>
+  </si>
+  <si>
+    <t>The dataset contains RGB images from young carrot seedlings taken during the period of February in the area around Negotino, Republic of Macedonia. We performed initial analysis of the dataset and report the initial results, obtained using convolutional neural network architectures.</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/319570220_Weed_Detection_Dataset_with_RGB_Images_Taken_Under_Variable_Light_Conditions
+https://github.com/lameski/rgbweeddetection</t>
+  </si>
+  <si>
+    <t>3264 ×2448</t>
+  </si>
+  <si>
+    <t>39 labeled images</t>
+  </si>
+  <si>
+    <t>Gray scale masks, weed, plant and grass</t>
+  </si>
+  <si>
+    <t>non-commercial applications</t>
+  </si>
+  <si>
+    <t>UNL Plant Phenotyping Datasets</t>
+  </si>
+  <si>
+    <t>This dataset consists of imaging data from 31 diverse maize inbreds as well as a number of representative genotypes from other panicoid grain crops. Plants were imaged once per day using the UNL Lemnatec Scanalyzer 3D. The dataset contains high resolution RGB photos taken from the top, front, and side (90 degree rotation) for 176 total plants on from 2 days after planting to 28 days after planting.</t>
+  </si>
+  <si>
+    <t>https://plantvision.unl.edu/dataset</t>
+  </si>
+  <si>
+    <t>10,000 training images and 1,000 validation images</t>
+  </si>
+  <si>
+    <t>Semantic segmentation</t>
+  </si>
+  <si>
+    <t>http://www.immersivelimit.com/blog/ai-weed-detector
+https://github.com/akTwelve/cocosynth</t>
+  </si>
+  <si>
+    <t>AI Weed Detector</t>
+  </si>
+  <si>
+    <t>1024x1024 images</t>
   </si>
 </sst>
 </file>
@@ -187,13 +234,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,169 +525,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.5546875" style="1"/>
+    <col min="1" max="1" width="10.5546875" style="1"/>
+    <col min="2" max="2" width="35.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.5546875" style="1"/>
+    <col min="4" max="4" width="10.5546875" style="1"/>
+    <col min="5" max="5" width="33" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="94.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" style="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="1"/>
     <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="10.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>2017</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>2019</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="1">
         <v>2015</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="4" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1">
         <v>2017</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{FBAF800D-E1AA-4DE3-848A-0ADEC1C870BA}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{50EB18B5-BB74-42F2-BBB8-C7851C3D6D13}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{F5F492A4-6E22-4B28-B71E-08A116DE4F31}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{ACBBF35A-94A9-45AE-9D99-8ECEFA964E3B}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{EF63628B-A261-43B8-A563-5CCC03696461}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{FBAF800D-E1AA-4DE3-848A-0ADEC1C870BA}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{50EB18B5-BB74-42F2-BBB8-C7851C3D6D13}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{F5F492A4-6E22-4B28-B71E-08A116DE4F31}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{ACBBF35A-94A9-45AE-9D99-8ECEFA964E3B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{EF63628B-A261-43B8-A563-5CCC03696461}"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.researchgate.net/publication/319570220_Weed_Detection_Dataset_with_RGB_Images_Taken_Under_Variable_Light_Conditions" xr:uid="{0974E6D1-5937-43BE-8E91-4F2AC70FBA9D}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{7A14992B-5B35-4E5E-8757-F2835AFA204B}"/>
+    <hyperlink ref="D9" r:id="rId8" display="http://www.immersivelimit.com/blog/ai-weed-detector" xr:uid="{487C9D69-29F0-4F5D-92A8-CD2C2AC9AACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/State of the art/Dataset comparison.xlsx
+++ b/State of the art/Dataset comparison.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93E3ABB-2532-4B20-9F26-207C0A5BA2A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C2EBD1-59AB-4B68-94B2-3EE8678E0878}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="1"/>
